--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -555,7 +555,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="34.710625" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="35.080625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -555,7 +555,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="28.030625" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="28.770625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -555,7 +555,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="28.770625" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="37.760625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -555,7 +555,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="37.760625" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="39.510625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -555,7 +555,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="39.510625" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="37.001382" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -555,7 +555,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="34.710625" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="34.790625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -555,7 +555,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="34.790625" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="34.970625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:r>
       <x:rPr>
@@ -172,6 +172,60 @@
         <x:family val="2"/>
       </x:rPr>
       <x:t>with a gray background</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="25"/>
+        <x:color rgb="FF000000"/>
+        <x:rFont val="Arial"/>
+        <x:family val="2"/>
+        <x:scheme val="major"/>
+      </x:rPr>
+      <x:t>Major scheme</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="25"/>
+        <x:color rgb="FF000000"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="25"/>
+        <x:color rgb="FF000000"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="2"/>
+        <x:scheme val="minor"/>
+      </x:rPr>
+      <x:t>Minor scheme</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="25"/>
+        <x:color rgb="FF000000"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="25"/>
+        <x:color rgb="FF000000"/>
+        <x:rFont val="Cambria"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>No scheme</x:t>
     </x:r>
   </x:si>
 </x:sst>
@@ -182,7 +236,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -194,6 +248,13 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF0000FF"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="25"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
@@ -230,7 +291,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -240,8 +301,11 @@
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -251,6 +315,10 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -549,13 +617,14 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B5"/>
+  <x:dimension ref="A1:B6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="34.970625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="81.860625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="34.970625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -579,6 +648,11 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -623,8 +623,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="81.860625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="34.970625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="88.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="35.282054" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -48,62 +48,6 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FFFF0000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>Hell</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:u val="single"/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FFFF0000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>o</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:u val="single"/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF0000FF"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> BIG </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:u val="single"/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FFFF0000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>W</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FFFF0000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>orld</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
     <x:t>" BIG " is Bold.</x:t>
   </x:si>
   <x:si>
@@ -111,33 +55,55 @@
       <x:rPr>
         <x:vertAlign val="baseline"/>
         <x:sz val="11"/>
-        <x:color rgb="FF008000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>Some</x:t>
+        <x:color rgb="FFFF0000"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Hell</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:u val="single"/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FFFF0000"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>o</x:t>
     </x:r>
     <x:r>
       <x:rPr>
         <x:b/>
+        <x:u val="single"/>
         <x:vertAlign val="baseline"/>
         <x:sz val="11"/>
         <x:color rgb="FF0000FF"/>
         <x:rFont val="Calibri"/>
         <x:family val="2"/>
       </x:rPr>
-      <x:t xml:space="preserve"> rich text </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:i/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>with a gray background</x:t>
+      <x:t xml:space="preserve"> BIG </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:u val="single"/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FFFF0000"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>W</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FFFF0000"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>orld</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -634,10 +600,10 @@
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
@@ -645,12 +611,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Rich Text" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Rich Text" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
